--- a/evaluation/assets/generated_files/merged_identifier_dataframe.xlsx
+++ b/evaluation/assets/generated_files/merged_identifier_dataframe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,11 +573,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00.296000</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43617.33333675926</v>
+        <v>43617.33333333334</v>
       </c>
       <c r="E2" t="n">
         <v>1559376000</v>
@@ -594,48 +594,48 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>a0:06:52:18:8d:fb</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>(203, 227, 1)</t>
+          <t>(200, 250, -9)</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O2" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="Q2" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R2" t="n">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="T2" t="n">
-        <v>302.0910458785563</v>
+        <v>318.290747587799</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -646,34 +646,34 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>a0:06:52:18:8d:fb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00.495000</t>
+          <t>08:00:00.801000</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43617.3333390625</v>
+        <v>43617.33334260416</v>
       </c>
       <c r="E3" t="n">
         <v>1559376000</v>
@@ -685,93 +685,91 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>2b:2a:13:94:a4:95</t>
         </is>
       </c>
       <c r="J3" t="n">
+        <v>237</v>
+      </c>
+      <c r="K3" t="n">
+        <v>245</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>(236, 243, -5)</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>236</v>
       </c>
-      <c r="K3" t="n">
-        <v>244</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>(251, 216, 13)</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>251</v>
-      </c>
       <c r="O3" t="n">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="P3" t="n">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="Q3" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="R3" t="n">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="S3" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="T3" t="n">
-        <v>328.0701144572605</v>
+        <v>336.1636506227287</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>6</v>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>2b:2a:13:94:a4:95</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00.992000</t>
+          <t>08:00:00.489000</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43617.33334481481</v>
+        <v>43617.33333899306</v>
       </c>
       <c r="E4" t="n">
         <v>1559376000</v>
@@ -783,17 +781,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>324525f2-a2af-4676-b72c-6c8cd2e43a7b</t>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>10:68:fe:01:18:0f</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -807,29 +805,29 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>(154, 278, 2)</t>
+          <t>(140, 309, -6)</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O4" t="n">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="Q4" t="n">
-        <v>160</v>
+        <v>117.6283431877267</v>
       </c>
       <c r="R4" t="n">
-        <v>276</v>
+        <v>317.2442999940618</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>-0.06695838718846225</v>
       </c>
       <c r="T4" t="n">
-        <v>316.7143823699833</v>
+        <v>340.2190470858444</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -840,41 +838,41 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>324525f2-a2af-4676-b72c-6c8cd2e43a7b</t>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
+          <t>6ad689ca-686b-46c0-8a51-d1d692e34ce1</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>10:68:fe:01:18:0f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:01.186000</t>
+          <t>08:00:01.492000</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43617.33334706019</v>
+        <v>43617.33335060185</v>
       </c>
       <c r="E5" t="n">
         <v>1559376001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -884,89 +882,91 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>b5f6ac26-c765-4054-b329-6758f035ce72</t>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>0e:93:d4:4d:7d:e2</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>(156, 275, -28)</t>
+          <t>(363, 105, -10)</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="O5" t="n">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="P5" t="n">
-        <v>-28</v>
+        <v>-10</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.7845726720849</v>
+        <v>353.7817317646279</v>
       </c>
       <c r="R5" t="n">
-        <v>285.2634288243261</v>
+        <v>129.9831351676481</v>
       </c>
       <c r="S5" t="n">
-        <v>-24.12704294865259</v>
+        <v>-22.99801181920102</v>
       </c>
       <c r="T5" t="n">
-        <v>318.3598592787728</v>
+        <v>378.3199703954313</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>b5f6ac26-c765-4054-b329-6758f035ce72</t>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>0e:93:d4:4d:7d:e2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:01.693000</t>
+          <t>08:00:02.189000</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43617.33335292824</v>
+        <v>43617.33335866898</v>
       </c>
       <c r="E6" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -975,53 +975,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>WiFi 2.4GHz</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>b5f6ac26-c765-4054-b329-6758f035ce72</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>f1:7b:af:80:15:c6</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K6" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>(140, 286, 24)</t>
+          <t>(145, 267, -29)</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O6" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>-29</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.800621998203</v>
+        <v>151</v>
       </c>
       <c r="R6" t="n">
-        <v>293.2716840741805</v>
+        <v>265</v>
       </c>
       <c r="S6" t="n">
-        <v>28.98902779649587</v>
+        <v>-25</v>
       </c>
       <c r="T6" t="n">
-        <v>320.1530883811681</v>
+        <v>304.5833219334243</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1034,34 +1034,34 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>b5f6ac26-c765-4054-b329-6758f035ce72</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
+          <t>c96daf92-c69a-44ee-a9ed-50becb9513b3</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>f1:7b:af:80:15:c6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00:03.496000</t>
+          <t>08:00:03.801000</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43617.3333737963</v>
+        <v>43617.33337732639</v>
       </c>
       <c r="E7" t="n">
         <v>1559376003</v>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>36:82:53:4b:37:cb</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -1097,69 +1097,69 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>(254, 248, 23)</t>
+          <t>(229, 238, -6)</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="O7" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>-6</v>
       </c>
       <c r="Q7" t="n">
-        <v>260</v>
+        <v>211.2357914896313</v>
       </c>
       <c r="R7" t="n">
-        <v>246</v>
+        <v>252.8361510702221</v>
       </c>
       <c r="S7" t="n">
-        <v>27</v>
+        <v>-7.22488927612182</v>
       </c>
       <c r="T7" t="n">
-        <v>352.6542215825581</v>
+        <v>331.0755200856747</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>36:82:53:4b:37:cb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:04.688000</t>
+          <t>08:00:04.392000</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43617.33338759259</v>
+        <v>43617.33338416667</v>
       </c>
       <c r="E8" t="n">
         <v>1559376004</v>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>4b:34:7a:8d:fa:45</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1195,29 +1195,29 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>(322, 133, -25)</t>
+          <t>(324, 142, -7)</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O8" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P8" t="n">
-        <v>-25</v>
+        <v>-7</v>
       </c>
       <c r="Q8" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="R8" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="S8" t="n">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="T8" t="n">
-        <v>344.8506923293036</v>
+        <v>349.2577844515423</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1230,41 +1230,41 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>84ac6ef0-eefe-4d37-8b06-fbe34388c2dc</t>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>4b:34:7a:8d:fa:45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00:05.197000</t>
+          <t>08:00:04.996000</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43617.33339348379</v>
+        <v>43617.33339115741</v>
       </c>
       <c r="E9" t="n">
-        <v>1559376005</v>
+        <v>1559376004</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>37957</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1274,91 +1274,91 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>a0:06:52:18:8d:fb</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="K9" t="n">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>(364, 111, -22)</t>
+          <t>(248, 244, 9)</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="O9" t="n">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="P9" t="n">
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="R9" t="n">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="S9" t="n">
-        <v>-18</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
-        <v>376.309712869599</v>
+        <v>345.1159225535675</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>84ac6ef0-eefe-4d37-8b06-fbe34388c2dc</t>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>a0:06:52:18:8d:fb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00:06.690000</t>
+          <t>08:00:05.691000</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43617.33341076389</v>
+        <v>43617.33339920139</v>
       </c>
       <c r="E10" t="n">
-        <v>1559376006</v>
+        <v>1559376005</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1367,21 +1367,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>WiFi 2.4GHz</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>b5f6ac26-c765-4054-b329-6758f035ce72</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>4b:34:7a:8d:fa:45</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K10" t="n">
         <v>129</v>
@@ -1391,29 +1391,29 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>(349, 128, 16)</t>
+          <t>(347, 153, -16)</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O10" t="n">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="P10" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="Q10" t="n">
-        <v>339.5935095761726</v>
+        <v>353</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0025532612161</v>
+        <v>151</v>
       </c>
       <c r="S10" t="n">
-        <v>4.531579789444529</v>
+        <v>-12</v>
       </c>
       <c r="T10" t="n">
-        <v>372.3801820720324</v>
+        <v>375.1079844524774</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1426,41 +1426,41 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>b5f6ac26-c765-4054-b329-6758f035ce72</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>84ac6ef0-eefe-4d37-8b06-fbe34388c2dc</t>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>4b:34:7a:8d:fa:45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00:07.489000</t>
+          <t>08:00:06.984000</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43617.33342001157</v>
+        <v>43617.33341416666</v>
       </c>
       <c r="E11" t="n">
-        <v>1559376007</v>
+        <v>1559376006</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1470,48 +1470,48 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>f1:7b:af:80:15:c6</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="K11" t="n">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>(337, 143, -11)</t>
+          <t>(112, 273, -1)</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="O11" t="n">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="P11" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="Q11" t="n">
-        <v>343</v>
+        <v>118</v>
       </c>
       <c r="R11" t="n">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="S11" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>361.6780336155349</v>
+        <v>294.764312629599</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -1524,37 +1524,37 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>84ac6ef0-eefe-4d37-8b06-fbe34388c2dc</t>
+          <t>c96daf92-c69a-44ee-a9ed-50becb9513b3</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>f1:7b:af:80:15:c6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00:07.689000</t>
+          <t>08:00:06.690000</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43617.33342232639</v>
+        <v>43617.33341076389</v>
       </c>
       <c r="E12" t="n">
-        <v>1559376007</v>
+        <v>1559376006</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>95:5b:5c:bc:bc:c8</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>(350, 127, 34)</t>
+          <t>(354, 122, -5)</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O12" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P12" t="n">
-        <v>34</v>
+        <v>-5</v>
       </c>
       <c r="Q12" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="R12" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S12" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="T12" t="n">
-        <v>368.6149752790844</v>
+        <v>369.5416079415145</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -1622,115 +1622,5309 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>84ac6ef0-eefe-4d37-8b06-fbe34388c2dc</t>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>95:5b:5c:bc:bc:c8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00:07.998000</t>
+          <t>08:00:06.690000</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43617.33342590278</v>
+        <v>43617.33341076389</v>
       </c>
       <c r="E13" t="n">
+        <v>1559376006</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>39222</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6f:38:8a:23:3e:65</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>147</v>
+      </c>
+      <c r="K13" t="n">
+        <v>282</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>(150, 283, -3)</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>150</v>
+      </c>
+      <c r="O13" t="n">
+        <v>283</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>156</v>
+      </c>
+      <c r="R13" t="n">
+        <v>281</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>319.3900436770063</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>c96daf92-c69a-44ee-a9ed-50becb9513b3</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>6f:38:8a:23:3e:65</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08:00:06.499000</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>43617.33340855324</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1559376006</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>231</v>
+      </c>
+      <c r="K14" t="n">
+        <v>241</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>(266, 243, 19)</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>266</v>
+      </c>
+      <c r="O14" t="n">
+        <v>243</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>272</v>
+      </c>
+      <c r="R14" t="n">
+        <v>241</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23</v>
+      </c>
+      <c r="T14" t="n">
+        <v>357.5611835756225</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:00:07.689000</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>43617.33342232639</v>
+      </c>
+      <c r="E15" t="n">
         <v>1559376007</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>351</v>
+      </c>
+      <c r="K15" t="n">
+        <v>129</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>(355, 144, 21)</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>355</v>
+      </c>
+      <c r="O15" t="n">
+        <v>144</v>
+      </c>
+      <c r="P15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>361</v>
+      </c>
+      <c r="R15" t="n">
+        <v>142</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>378.6898467083584</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08:00:11.491000</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>43617.33346633102</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1559376011</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>347</v>
+      </c>
+      <c r="K16" t="n">
+        <v>132</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>(344, 104, -19)</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>344</v>
+      </c>
+      <c r="O16" t="n">
+        <v>104</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>350</v>
+      </c>
+      <c r="R16" t="n">
+        <v>102</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>354.9774640734254</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08:00:12.497000</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>43617.33347797453</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1559376012</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>37957</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>RFID</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>233</v>
+      </c>
+      <c r="K17" t="n">
+        <v>241</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>(218, 256, -32)</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>218</v>
+      </c>
+      <c r="O17" t="n">
+        <v>256</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-32</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>224</v>
+      </c>
+      <c r="R17" t="n">
+        <v>254</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-28</v>
+      </c>
+      <c r="T17" t="n">
+        <v>335.8630673354842</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08:00:13.196000</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>43617.33348606482</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1559376013</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>346</v>
+      </c>
+      <c r="K18" t="n">
+        <v>128</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>(327, 128, -12)</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>327</v>
+      </c>
+      <c r="O18" t="n">
+        <v>128</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>333</v>
+      </c>
+      <c r="R18" t="n">
+        <v>126</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>346.6943899171142</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08:00:17.999000</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>43617.33354165509</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1559376017</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>37957</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>232</v>
+      </c>
+      <c r="K19" t="n">
+        <v>241</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>(234, 210, 19)</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>234</v>
+      </c>
+      <c r="O19" t="n">
+        <v>210</v>
+      </c>
+      <c r="P19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>240</v>
+      </c>
+      <c r="R19" t="n">
+        <v>208</v>
+      </c>
+      <c r="S19" t="n">
+        <v>23</v>
+      </c>
+      <c r="T19" t="n">
+        <v>311.6937599632049</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08:00:20.688000</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>43617.33357277778</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1559376020</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>95:5b:5c:bc:bc:c8</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>351</v>
+      </c>
+      <c r="K20" t="n">
+        <v>129</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>(359, 125, 1)</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>359</v>
+      </c>
+      <c r="O20" t="n">
+        <v>125</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>365</v>
+      </c>
+      <c r="R20" t="n">
+        <v>123</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>375.1626314013697</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>95:5b:5c:bc:bc:c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08:00:26.989000</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>43617.33364570602</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1559376026</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>349</v>
+      </c>
+      <c r="K21" t="n">
+        <v>133</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>(362, 122, 18)</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>362</v>
+      </c>
+      <c r="O21" t="n">
+        <v>122</v>
+      </c>
+      <c r="P21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>368</v>
+      </c>
+      <c r="R21" t="n">
+        <v>120</v>
+      </c>
+      <c r="S21" t="n">
+        <v>22</v>
+      </c>
+      <c r="T21" t="n">
+        <v>377.2373258308356</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08:00:27.486000</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>43617.33365145834</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1559376027</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>147</v>
+      </c>
+      <c r="K22" t="n">
+        <v>283</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>(163, 312, 12)</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>163</v>
+      </c>
+      <c r="O22" t="n">
+        <v>312</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>169</v>
+      </c>
+      <c r="R22" t="n">
+        <v>310</v>
+      </c>
+      <c r="S22" t="n">
+        <v>16</v>
+      </c>
+      <c r="T22" t="n">
+        <v>351.153812452606</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08:00:29.003000</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>43617.3336690162</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1559376029</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>233</v>
+      </c>
+      <c r="K23" t="n">
+        <v>242</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>(230, 233, -14)</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>230</v>
+      </c>
+      <c r="O23" t="n">
+        <v>233</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>236</v>
+      </c>
+      <c r="R23" t="n">
+        <v>231</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T23" t="n">
+        <v>325.1538097577822</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08:00:29.196000</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>43617.33367125</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1559376029</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>159</v>
+      </c>
+      <c r="K24" t="n">
+        <v>278</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>(127, 273, -3)</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>127</v>
+      </c>
+      <c r="O24" t="n">
+        <v>273</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>133</v>
+      </c>
+      <c r="R24" t="n">
+        <v>271</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>300.524541427152</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08:00:31.196000</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>43617.33369439815</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1559376031</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>09:49:ef:f5:a0:b2</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>145</v>
+      </c>
+      <c r="K25" t="n">
+        <v>287</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>(146, 289, -9)</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>146</v>
+      </c>
+      <c r="O25" t="n">
+        <v>289</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>152</v>
+      </c>
+      <c r="R25" t="n">
+        <v>287</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>323.1872522238463</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>09:49:ef:f5:a0:b2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08:00:32.685000</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>43617.33371163195</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1559376032</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>46:a4:96:0a:07:df</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>146</v>
+      </c>
+      <c r="K26" t="n">
+        <v>287</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>(127, 294, -11)</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>127</v>
+      </c>
+      <c r="O26" t="n">
+        <v>294</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>105.4610165261451</v>
+      </c>
+      <c r="R26" t="n">
+        <v>301.5361556880221</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-4.987361253925856</v>
+      </c>
+      <c r="T26" t="n">
+        <v>321.4000622277475</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>491a586d-a54a-4518-81dc-9d64c2412b12</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>46:a4:96:0a:07:df</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08:00:33.687000</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>43617.33372322917</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1559376033</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>46:a4:96:0a:07:df</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>146</v>
+      </c>
+      <c r="K27" t="n">
+        <v>286</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>(153, 303, -18)</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>153</v>
+      </c>
+      <c r="O27" t="n">
+        <v>303</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>130.3688369665238</v>
+      </c>
+      <c r="R27" t="n">
+        <v>312.6115146857075</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-12.92063951592076</v>
+      </c>
+      <c r="T27" t="n">
+        <v>340.8606753499148</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>491a586d-a54a-4518-81dc-9d64c2412b12</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>46:a4:96:0a:07:df</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08:00:34.392000</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>43617.33373138889</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1559376034</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>350</v>
+      </c>
+      <c r="K28" t="n">
+        <v>131</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>(320, 121, 8)</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>320</v>
+      </c>
+      <c r="O28" t="n">
+        <v>121</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>326</v>
+      </c>
+      <c r="R28" t="n">
+        <v>119</v>
+      </c>
+      <c r="S28" t="n">
+        <v>12</v>
+      </c>
+      <c r="T28" t="n">
+        <v>337.2550963291733</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08:00:35.894000</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>43617.33374877315</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1559376035</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>147</v>
+      </c>
+      <c r="K29" t="n">
+        <v>284</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>(165, 293, -11)</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>165</v>
+      </c>
+      <c r="O29" t="n">
+        <v>293</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>171</v>
+      </c>
+      <c r="R29" t="n">
+        <v>291</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>335.4564055134437</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08:00:36.693000</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>43617.33375802083</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1559376036</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>147</v>
+      </c>
+      <c r="K30" t="n">
+        <v>284</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>(129, 275, -3)</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>129</v>
+      </c>
+      <c r="O30" t="n">
+        <v>275</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>135</v>
+      </c>
+      <c r="R30" t="n">
+        <v>273</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>303.1616730393207</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08:00:38.502000</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>43617.33377895833</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1559376038</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>234</v>
+      </c>
+      <c r="K31" t="n">
+        <v>242</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>(210, 267, -10)</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>210</v>
+      </c>
+      <c r="O31" t="n">
+        <v>267</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>216</v>
+      </c>
+      <c r="R31" t="n">
+        <v>265</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>337.8949540907647</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>12</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08:00:38.891000</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>43617.33378346065</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1559376038</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>147</v>
+      </c>
+      <c r="K32" t="n">
+        <v>285</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>(156, 270, -19)</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>156</v>
+      </c>
+      <c r="O32" t="n">
+        <v>270</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>162</v>
+      </c>
+      <c r="R32" t="n">
+        <v>268</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-15</v>
+      </c>
+      <c r="T32" t="n">
+        <v>311.4690995909546</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08:00:39.391000</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>43617.33378924768</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1559376039</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>350</v>
+      </c>
+      <c r="K33" t="n">
+        <v>129</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>(343, 102, 27)</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>343</v>
+      </c>
+      <c r="O33" t="n">
+        <v>102</v>
+      </c>
+      <c r="P33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>349</v>
+      </c>
+      <c r="R33" t="n">
+        <v>100</v>
+      </c>
+      <c r="S33" t="n">
+        <v>31</v>
+      </c>
+      <c r="T33" t="n">
+        <v>353.4317473006634</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08:00:39.686000</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>43617.33379266204</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1559376039</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>146</v>
+      </c>
+      <c r="K34" t="n">
+        <v>286</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>(125, 279, -27)</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>125</v>
+      </c>
+      <c r="O34" t="n">
+        <v>279</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-27</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>131</v>
+      </c>
+      <c r="R34" t="n">
+        <v>277</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-23</v>
+      </c>
+      <c r="T34" t="n">
+        <v>306.7295225438855</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>252e368e-e951-45d0-85c5-0da4d13a7f99</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>41:5f:63:c6:69:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08:00:42.492000</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>43617.33382513889</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1559376042</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>350</v>
+      </c>
+      <c r="K35" t="n">
+        <v>128</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>(337, 126, 35)</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>337</v>
+      </c>
+      <c r="O35" t="n">
+        <v>126</v>
+      </c>
+      <c r="P35" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>343</v>
+      </c>
+      <c r="R35" t="n">
+        <v>124</v>
+      </c>
+      <c r="S35" t="n">
+        <v>39</v>
+      </c>
+      <c r="T35" t="n">
+        <v>356.2386840308054</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08:00:45.687000</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>43617.33386211806</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1559376045</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>350</v>
+      </c>
+      <c r="K36" t="n">
+        <v>129</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>(344, 153, 5)</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>344</v>
+      </c>
+      <c r="O36" t="n">
+        <v>153</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>350</v>
+      </c>
+      <c r="R36" t="n">
+        <v>151</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>371.8467426238934</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08:00:45.500000</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>43617.3338599537</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1559376045</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>234</v>
+      </c>
+      <c r="K37" t="n">
+        <v>243</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>(212, 257, -22)</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>212</v>
+      </c>
+      <c r="O37" t="n">
+        <v>257</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-22</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>218</v>
+      </c>
+      <c r="R37" t="n">
+        <v>255</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T37" t="n">
+        <v>331.9533099699414</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>15</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08:00:45.485000</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>43617.33385978009</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1559376045</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>350</v>
+      </c>
+      <c r="K38" t="n">
+        <v>129</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>(317, 149, 2)</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>317</v>
+      </c>
+      <c r="O38" t="n">
+        <v>149</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>323</v>
+      </c>
+      <c r="R38" t="n">
+        <v>147</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>345.7253244990885</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08:00:47.001000</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>43617.33387732639</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1559376047</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>233</v>
+      </c>
+      <c r="K39" t="n">
+        <v>242</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>(227, 216, 27)</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>227</v>
+      </c>
+      <c r="O39" t="n">
+        <v>216</v>
+      </c>
+      <c r="P39" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>233</v>
+      </c>
+      <c r="R39" t="n">
+        <v>214</v>
+      </c>
+      <c r="S39" t="n">
+        <v>31</v>
+      </c>
+      <c r="T39" t="n">
+        <v>311.2780107877844</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>16</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08:00:50.993000</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>43617.3339235301</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1559376050</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>36:82:53:4b:37:cb</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>233</v>
+      </c>
+      <c r="K40" t="n">
+        <v>242</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>(237, 240, 2)</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>237</v>
+      </c>
+      <c r="O40" t="n">
+        <v>240</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>219.4847327769232</v>
+      </c>
+      <c r="R40" t="n">
+        <v>255.1232838612443</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.4382687696867524</v>
+      </c>
+      <c r="T40" t="n">
+        <v>338.0103548709714</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>36:82:53:4b:37:cb</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08:00:54.187000</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>43617.33396049769</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1559376054</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>39229</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>148</v>
+      </c>
+      <c r="K41" t="n">
+        <v>284</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>(145, 289, -33)</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>145</v>
+      </c>
+      <c r="O41" t="n">
+        <v>289</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>151</v>
+      </c>
+      <c r="R41" t="n">
+        <v>287</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-29</v>
+      </c>
+      <c r="T41" t="n">
+        <v>324.6089955623535</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>cae89737-4742-4604-b8bc-1d77179306d7</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>08:00:55.895000</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>43617.3339802662</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1559376055</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>39229</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>148</v>
+      </c>
+      <c r="K42" t="n">
+        <v>284</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>(130, 286, -2)</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>130</v>
+      </c>
+      <c r="O42" t="n">
+        <v>286</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>136</v>
+      </c>
+      <c r="R42" t="n">
+        <v>284</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>313.617601546852</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>cae89737-4742-4604-b8bc-1d77179306d7</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08:00:55.687000</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>43617.3339778588</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1559376055</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>39229</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>148</v>
+      </c>
+      <c r="K43" t="n">
+        <v>284</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>(159, 280, -36)</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>159</v>
+      </c>
+      <c r="O43" t="n">
+        <v>280</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-36</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>165</v>
+      </c>
+      <c r="R43" t="n">
+        <v>278</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-32</v>
+      </c>
+      <c r="T43" t="n">
+        <v>323.3156352544677</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>cae89737-4742-4604-b8bc-1d77179306d7</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>08:00:56.188000</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>43617.33398365741</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1559376056</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>351</v>
+      </c>
+      <c r="K44" t="n">
+        <v>127</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>(378, 130, -11)</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>378</v>
+      </c>
+      <c r="O44" t="n">
+        <v>130</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>366.9308277863375</v>
+      </c>
+      <c r="R44" t="n">
+        <v>156.0117510521042</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-23.78059021866236</v>
+      </c>
+      <c r="T44" t="n">
+        <v>400.2361802735979</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>08:00:56.694000</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>43617.33398951389</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1559376056</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>350</v>
+      </c>
+      <c r="K45" t="n">
+        <v>127</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>(383, 118, -6)</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>383</v>
+      </c>
+      <c r="O45" t="n">
+        <v>118</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>389</v>
+      </c>
+      <c r="R45" t="n">
+        <v>116</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>395.7638184574229</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>08:00:58.195000</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>43617.33400688657</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1559376058</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>39229</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>145</v>
+      </c>
+      <c r="K46" t="n">
+        <v>285</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>(164, 294, -28)</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>164</v>
+      </c>
+      <c r="O46" t="n">
+        <v>294</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-28</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>170</v>
+      </c>
+      <c r="R46" t="n">
+        <v>292</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-24</v>
+      </c>
+      <c r="T46" t="n">
+        <v>337.0519247831111</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>cae89737-4742-4604-b8bc-1d77179306d7</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>c5:72:3f:13:c0:e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>08:01:00.703000</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>43617.33403591435</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1559376060</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>350</v>
+      </c>
+      <c r="K47" t="n">
+        <v>128</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>(368, 128, -7)</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>368</v>
+      </c>
+      <c r="O47" t="n">
+        <v>128</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>374</v>
+      </c>
+      <c r="R47" t="n">
+        <v>126</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>384.7921516871154</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>08:01:09.003000</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>43617.33413197917</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1559376069</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>242</v>
+      </c>
+      <c r="K48" t="n">
+        <v>241</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>(253, 237, 37)</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>253</v>
+      </c>
+      <c r="O48" t="n">
+        <v>237</v>
+      </c>
+      <c r="P48" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>259</v>
+      </c>
+      <c r="R48" t="n">
         <v>235</v>
       </c>
-      <c r="K13" t="n">
-        <v>242</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>(225, 227, -25)</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>225</v>
-      </c>
-      <c r="O13" t="n">
-        <v>227</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="S48" t="n">
+        <v>41</v>
+      </c>
+      <c r="T48" t="n">
+        <v>345.2810449474457</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>a0:06:52:18:8d:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>08:01:11.705000</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>43617.33416325232</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1559376071</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>32:e8:92:af:02:8a</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>146</v>
+      </c>
+      <c r="K49" t="n">
+        <v>290</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>(139, 279, 0)</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>139</v>
+      </c>
+      <c r="O49" t="n">
+        <v>279</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>119.035988249422</v>
+      </c>
+      <c r="R49" t="n">
+        <v>287.0587854229688</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.817020058568193</v>
+      </c>
+      <c r="T49" t="n">
+        <v>312.6051822986944</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>3d536640-a76c-4821-be8c-8eac438cf6c3</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>32:e8:92:af:02:8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>08:01:12.907000</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>43617.33417716435</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1559376072</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>350</v>
+      </c>
+      <c r="K50" t="n">
+        <v>127</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>(383, 123, -15)</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>383</v>
+      </c>
+      <c r="O50" t="n">
+        <v>123</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-15</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>389</v>
+      </c>
+      <c r="R50" t="n">
+        <v>121</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>397.6367689235994</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>08:01:13.219000</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>43617.33418077546</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1559376073</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>d8:df:3a:3d:09:a2</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>150</v>
+      </c>
+      <c r="K51" t="n">
+        <v>289</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>(120, 302, 3)</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>120</v>
+      </c>
+      <c r="O51" t="n">
+        <v>302</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>126</v>
+      </c>
+      <c r="R51" t="n">
+        <v>300</v>
+      </c>
+      <c r="S51" t="n">
+        <v>7</v>
+      </c>
+      <c r="T51" t="n">
+        <v>324.6736823335085</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>d14a805a-96bf-48ba-840a-24708eebf5bb</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>d8:df:3a:3d:09:a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>08:01:14.213000</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>43617.33419228009</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1559376074</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>350</v>
+      </c>
+      <c r="K52" t="n">
+        <v>127</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>(354, 152, 9)</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>354</v>
+      </c>
+      <c r="O52" t="n">
+        <v>152</v>
+      </c>
+      <c r="P52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>360</v>
+      </c>
+      <c r="R52" t="n">
+        <v>150</v>
+      </c>
+      <c r="S52" t="n">
+        <v>13</v>
+      </c>
+      <c r="T52" t="n">
+        <v>380.5850759028788</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>08:01:14.908000</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>43617.33420032408</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1559376074</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>32:e8:92:af:02:8a</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>148</v>
+      </c>
+      <c r="K53" t="n">
+        <v>288</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>(147, 298, -17)</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>147</v>
+      </c>
+      <c r="O53" t="n">
+        <v>298</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-17</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>124.7922957569797</v>
+      </c>
+      <c r="R53" t="n">
+        <v>307.1633020865158</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-11.8164802827188</v>
+      </c>
+      <c r="T53" t="n">
+        <v>333.6674991664606</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>3d536640-a76c-4821-be8c-8eac438cf6c3</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>32:e8:92:af:02:8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>08:01:18.704000</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>43617.33424425926</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1559376078</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>350</v>
+      </c>
+      <c r="K54" t="n">
+        <v>127</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>(317, 117, -13)</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>317</v>
+      </c>
+      <c r="O54" t="n">
+        <v>117</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-13</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>323</v>
+      </c>
+      <c r="R54" t="n">
+        <v>115</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-9</v>
+      </c>
+      <c r="T54" t="n">
+        <v>333.4231545648862</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>08:01:18.905000</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>43617.33424658565</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1559376078</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>350</v>
+      </c>
+      <c r="K55" t="n">
+        <v>127</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>(327, 136, -11)</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>327</v>
+      </c>
+      <c r="O55" t="n">
+        <v>136</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>315.7068194434685</v>
+      </c>
+      <c r="R55" t="n">
+        <v>158.3443872664873</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-21.01295989995333</v>
+      </c>
+      <c r="T55" t="n">
+        <v>354.7421598851763</v>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>08:01:19.215000</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>43617.33425017361</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1559376079</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>350</v>
+      </c>
+      <c r="K56" t="n">
+        <v>127</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>(349, 144, -2)</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>349</v>
+      </c>
+      <c r="O56" t="n">
+        <v>144</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>355</v>
+      </c>
+      <c r="R56" t="n">
+        <v>142</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="n">
+        <v>372.8283787481849</v>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>08:01:20.204000</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>43617.33426162037</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1559376080</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>350</v>
+      </c>
+      <c r="K57" t="n">
+        <v>127</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>(349, 140, -18)</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>349</v>
+      </c>
+      <c r="O57" t="n">
+        <v>140</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>336.9781565648579</v>
+      </c>
+      <c r="R57" t="n">
+        <v>164.1494573916537</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-28.93958452271064</v>
+      </c>
+      <c r="T57" t="n">
+        <v>376.8859243856157</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>08:01:21.802000</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>43617.33428011574</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1559376081</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>36:82:53:4b:37:cb</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>245</v>
+      </c>
+      <c r="K58" t="n">
+        <v>240</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>(255, 235, -25)</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>255</v>
+      </c>
+      <c r="O58" t="n">
+        <v>235</v>
+      </c>
+      <c r="P58" t="n">
         <v>-25</v>
       </c>
-      <c r="Q13" t="n">
-        <v>231</v>
-      </c>
-      <c r="R13" t="n">
-        <v>225</v>
-      </c>
-      <c r="S13" t="n">
-        <v>-21</v>
-      </c>
-      <c r="T13" t="n">
-        <v>318.1870519050076</v>
-      </c>
-      <c r="U13" t="b">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>16</v>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>f7621a08-9b2c-4cc8-b42d-e8b4e1d447dc</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>23c9ef01-a6ba-48ec-a922-e384fb3b600b</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Q58" t="n">
+        <v>236.3515109541493</v>
+      </c>
+      <c r="R58" t="n">
+        <v>252.3677826726084</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-27.59597827066871</v>
+      </c>
+      <c r="T58" t="n">
+        <v>348.4207226902556</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>36:82:53:4b:37:cb</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>08:01:23.908000</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>43617.33430449074</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1559376083</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>350</v>
+      </c>
+      <c r="K59" t="n">
+        <v>127</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>(325, 135, 9)</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>325</v>
+      </c>
+      <c r="O59" t="n">
+        <v>135</v>
+      </c>
+      <c r="P59" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>331</v>
+      </c>
+      <c r="R59" t="n">
+        <v>133</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13</v>
+      </c>
+      <c r="T59" t="n">
+        <v>347.2103109068048</v>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>08:01:23.409000</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>43617.33429871528</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1559376083</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>d8:df:3a:3d:09:a2</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>146</v>
+      </c>
+      <c r="K60" t="n">
+        <v>289</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>(143, 313, 20)</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>143</v>
+      </c>
+      <c r="O60" t="n">
+        <v>313</v>
+      </c>
+      <c r="P60" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>149</v>
+      </c>
+      <c r="R60" t="n">
+        <v>311</v>
+      </c>
+      <c r="S60" t="n">
+        <v>24</v>
+      </c>
+      <c r="T60" t="n">
+        <v>343.874977280988</v>
+      </c>
+      <c r="U60" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>d14a805a-96bf-48ba-840a-24708eebf5bb</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>d8:df:3a:3d:09:a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>08:01:24.202000</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>43617.33430789352</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1559376084</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>350</v>
+      </c>
+      <c r="K61" t="n">
+        <v>127</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>(373, 115, 20)</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>373</v>
+      </c>
+      <c r="O61" t="n">
+        <v>115</v>
+      </c>
+      <c r="P61" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>379</v>
+      </c>
+      <c r="R61" t="n">
+        <v>113</v>
+      </c>
+      <c r="S61" t="n">
+        <v>24</v>
+      </c>
+      <c r="T61" t="n">
+        <v>385.5308029198186</v>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>4b:34:7a:8d:fa:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>08:01:24.709000</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>43617.33431376157</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1559376084</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>350</v>
+      </c>
+      <c r="K62" t="n">
+        <v>127</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>(333, 149, -3)</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>333</v>
+      </c>
+      <c r="O62" t="n">
+        <v>149</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>321.1970972598293</v>
+      </c>
+      <c r="R62" t="n">
+        <v>171.4535664610565</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-12.8272241148299</v>
+      </c>
+      <c r="T62" t="n">
+        <v>365.246492111834</v>
+      </c>
+      <c r="U62" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>9a2c87a8-3f4a-4c35-9f2c-787baa0f3804</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>0e:93:d4:4d:7d:e2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>08:01:24.709000</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>43617.33431376157</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1559376084</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>32:e8:92:af:02:8a</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>146</v>
+      </c>
+      <c r="K63" t="n">
+        <v>289</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>(130, 305, -17)</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>130</v>
+      </c>
+      <c r="O63" t="n">
+        <v>305</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-17</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>107.3693219347506</v>
+      </c>
+      <c r="R63" t="n">
+        <v>312.924992246794</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-10.70162168770614</v>
+      </c>
+      <c r="T63" t="n">
+        <v>332.9564536091769</v>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>3d536640-a76c-4821-be8c-8eac438cf6c3</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>32:e8:92:af:02:8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>08:01:24.910000</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>43617.33431608796</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1559376084</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>d8:df:3a:3d:09:a2</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>146</v>
+      </c>
+      <c r="K64" t="n">
+        <v>289</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>(167, 288, -16)</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>167</v>
+      </c>
+      <c r="O64" t="n">
+        <v>288</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>173</v>
+      </c>
+      <c r="R64" t="n">
+        <v>286</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-12</v>
+      </c>
+      <c r="T64" t="n">
+        <v>332.2965543005224</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>98d6e415-8d06-43ef-a58d-2112b0d010af</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>d14a805a-96bf-48ba-840a-24708eebf5bb</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>d8:df:3a:3d:09:a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>08:01:34.498000</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>43617.33442706019</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1559376094</v>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>37957</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2b:2a:13:94:a4:95</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>244</v>
+      </c>
+      <c r="K65" t="n">
+        <v>240</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>(250, 243, -2)</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>250</v>
+      </c>
+      <c r="O65" t="n">
+        <v>243</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>256</v>
+      </c>
+      <c r="R65" t="n">
+        <v>241</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>345.8279919266224</v>
+      </c>
+      <c r="U65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>3099528d-fa12-4ef7-8809-5d0a9ce4a45d</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>2b:2a:13:94:a4:95</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>08:01:37.498000</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>43617.3344617824</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1559376097</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>37957</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>WiFi 2.4GHz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>36:82:53:4b:37:cb</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>244</v>
+      </c>
+      <c r="K66" t="n">
+        <v>239</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>(248, 212, -10)</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>248</v>
+      </c>
+      <c r="O66" t="n">
+        <v>212</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>231.7653719571894</v>
+      </c>
+      <c r="R66" t="n">
+        <v>228.4171895702435</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-13.16211464565438</v>
+      </c>
+      <c r="T66" t="n">
+        <v>327.099373279742</v>
+      </c>
+      <c r="U66" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>13b5e4fb-8943-4802-af9f-01c9e11e71ea</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>3c9e122f-4b21-42b4-a2dc-efd834f18055</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>36:82:53:4b:37:cb</t>
         </is>
       </c>
     </row>

--- a/evaluation/assets/generated_files/merged_identifier_dataframe.xlsx
+++ b/evaluation/assets/generated_files/merged_identifier_dataframe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,12 +594,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>57:d4:a8:d1:58:2f</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -613,29 +613,29 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>(217, 240, 1081)</t>
+          <t>(235, 244, 1083)</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="O2" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P2" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="R2" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S2" t="n">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="T2" t="n">
-        <v>1123.838956434595</v>
+        <v>1130.131850714774</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -646,139 +646,137 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>add57521-4b4c-47cf-aa37-dc87b4dd8711</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>57:d4:a8:d1:58:2f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00.183000</t>
+          <t>08:00:00.489000</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43617.33333545139</v>
+        <v>43617.33333899306</v>
       </c>
       <c r="E3" t="n">
         <v>1559376000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="K3" t="n">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>1247</v>
+        <v>1103</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>(388, 127, 1243)</t>
+          <t>(151, 283, 1103)</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>388</v>
+        <v>151</v>
       </c>
       <c r="O3" t="n">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="P3" t="n">
-        <v>1243</v>
+        <v>1103</v>
       </c>
       <c r="Q3" t="n">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="R3" t="n">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="S3" t="n">
-        <v>1247</v>
+        <v>1107</v>
       </c>
       <c r="T3" t="n">
-        <v>1302.95280037306</v>
+        <v>1144.574593462567</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="b">
         <v>0</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00.489000</t>
+          <t>08:00:00.992000</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43617.33333899306</v>
+        <v>43617.33334481481</v>
       </c>
       <c r="E4" t="n">
         <v>1559376000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -788,48 +786,48 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="L4" t="n">
-        <v>1103</v>
+        <v>1224</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>(131, 298, 1075)</t>
+          <t>(352, 127, 1224)</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="O4" t="n">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="P4" t="n">
-        <v>1075</v>
+        <v>1224</v>
       </c>
       <c r="Q4" t="n">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="R4" t="n">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="S4" t="n">
-        <v>1079</v>
+        <v>1228</v>
       </c>
       <c r="T4" t="n">
-        <v>1119.225625153392</v>
+        <v>1274.659562393034</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -842,139 +840,137 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00.495000</t>
+          <t>08:00:00.183000</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43617.3333390625</v>
+        <v>43617.33333545139</v>
       </c>
       <c r="E5" t="n">
         <v>1559376000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="K5" t="n">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="L5" t="n">
-        <v>1084</v>
+        <v>1103</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>(208, 248, 1082)</t>
+          <t>(151, 282, 1103)</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="O5" t="n">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="P5" t="n">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="Q5" t="n">
-        <v>214</v>
+        <v>188.5079284414117</v>
       </c>
       <c r="R5" t="n">
-        <v>246</v>
+        <v>252.4663146521928</v>
       </c>
       <c r="S5" t="n">
-        <v>1086</v>
+        <v>1105.15288264414</v>
       </c>
       <c r="T5" t="n">
-        <v>1124.894661735044</v>
+        <v>1147.734289807532</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>6</v>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:00.691000</t>
+          <t>08:00:00.489000</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43617.33334133102</v>
+        <v>43617.33333899306</v>
       </c>
       <c r="E6" t="n">
         <v>1559376000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -984,48 +980,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>352</v>
+        <v>151</v>
       </c>
       <c r="K6" t="n">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
-        <v>1239</v>
+        <v>1103</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>(322, 143, 1224)</t>
+          <t>(151, 283, 1103)</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="O6" t="n">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="P6" t="n">
-        <v>1224</v>
+        <v>1103</v>
       </c>
       <c r="Q6" t="n">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="R6" t="n">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="S6" t="n">
-        <v>1228</v>
+        <v>1107</v>
       </c>
       <c r="T6" t="n">
-        <v>1268.574396714674</v>
+        <v>1144.574593462567</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1038,34 +1034,34 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00:00.992000</t>
+          <t>08:00:00.183000</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43617.33334481481</v>
+        <v>43617.33333545139</v>
       </c>
       <c r="E7" t="n">
         <v>1559376000</v>
@@ -1082,48 +1078,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" t="n">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>(353, 126, 1222)</t>
+          <t>(351, 126, 1247)</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O7" t="n">
         <v>126</v>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>1247</v>
       </c>
       <c r="Q7" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R7" t="n">
         <v>124</v>
       </c>
       <c r="S7" t="n">
-        <v>1226</v>
+        <v>1251</v>
       </c>
       <c r="T7" t="n">
-        <v>1272.916729405345</v>
+        <v>1296.324804977518</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1136,133 +1132,135 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:00:00.691000</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43617.33333333334</v>
+        <v>43617.33334133102</v>
       </c>
       <c r="E8" t="n">
         <v>1559376000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WiFi 2.4GHz</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20:7e:5c:21:0f:fa</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="L8" t="n">
-        <v>1083</v>
+        <v>1239</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>(248, 228, 1087)</t>
+          <t>(352, 126, 1239)</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="O8" t="n">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="P8" t="n">
-        <v>1087</v>
+        <v>1239</v>
       </c>
       <c r="Q8" t="n">
-        <v>288.0633419569593</v>
+        <v>358</v>
       </c>
       <c r="R8" t="n">
-        <v>206.1341728215513</v>
+        <v>124</v>
       </c>
       <c r="S8" t="n">
-        <v>1082.282546548366</v>
+        <v>1243</v>
       </c>
       <c r="T8" t="n">
-        <v>1137.251511320165</v>
+        <v>1288.923969829097</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
       <c r="W8" t="b">
         <v>0</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>20:7e:5c:21:0f:fa</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00:00.489000</t>
+          <t>08:00:01.186000</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43617.33333899306</v>
+        <v>43617.33334706019</v>
       </c>
       <c r="E9" t="n">
-        <v>1559376000</v>
+        <v>1559376001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1271,21 +1269,21 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>WiFi 2.4GHz</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1c:23:e9:79:8e:b9</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
         <v>283</v>
@@ -1295,29 +1293,29 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>(156, 305, 1120)</t>
+          <t>(150, 283, 1103)</t>
         </is>
       </c>
       <c r="N9" t="n">
+        <v>150</v>
+      </c>
+      <c r="O9" t="n">
+        <v>283</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1103</v>
+      </c>
+      <c r="Q9" t="n">
         <v>156</v>
       </c>
-      <c r="O9" t="n">
-        <v>305</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1120</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>192.776424191348</v>
-      </c>
       <c r="R9" t="n">
-        <v>275.1585823150742</v>
+        <v>281</v>
       </c>
       <c r="S9" t="n">
-        <v>1122.755181708436</v>
+        <v>1107</v>
       </c>
       <c r="T9" t="n">
-        <v>1170.526804477369</v>
+        <v>1144.448338720451</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1330,130 +1328,132 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1c:23:e9:79:8e:b9</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00:00.691000</t>
+          <t>08:00:01.492000</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43617.33334133102</v>
+        <v>43617.33335060185</v>
       </c>
       <c r="E10" t="n">
-        <v>1559376000</v>
+        <v>1559376001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17:03:fa:43:d8:b3</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="K10" t="n">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="L10" t="n">
-        <v>1103</v>
+        <v>1217</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>(144, 285, 1103)</t>
+          <t>(351, 127, 1217)</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="O10" t="n">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="P10" t="n">
-        <v>1103</v>
+        <v>1217</v>
       </c>
       <c r="Q10" t="n">
-        <v>150</v>
+        <v>357</v>
       </c>
       <c r="R10" t="n">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="S10" t="n">
-        <v>1107</v>
+        <v>1221</v>
       </c>
       <c r="T10" t="n">
-        <v>1144.20889701138</v>
+        <v>1267.688841948212</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
       <c r="W10" t="b">
         <v>0</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>a0bdb216-c0f7-4a4b-b3f7-9b59ed46475d</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:03:fa:43:d8:b3</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00:01.892000</t>
+          <t>08:00:01.693000</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43617.33335523148</v>
+        <v>43617.33335292824</v>
       </c>
       <c r="E11" t="n">
         <v>1559376001</v>
@@ -1470,48 +1470,48 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L11" t="n">
-        <v>1067</v>
+        <v>1084</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>(156, 287, 1071)</t>
+          <t>(150, 282, 1084)</t>
         </is>
       </c>
       <c r="N11" t="n">
+        <v>150</v>
+      </c>
+      <c r="O11" t="n">
+        <v>282</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1084</v>
+      </c>
+      <c r="Q11" t="n">
         <v>156</v>
       </c>
-      <c r="O11" t="n">
-        <v>287</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1071</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>162</v>
-      </c>
       <c r="R11" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="T11" t="n">
-        <v>1115.576084361797</v>
+        <v>1125.962699204552</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -1524,34 +1524,34 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00:01.693000</t>
+          <t>08:00:01.892000</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43617.33335292824</v>
+        <v>43617.33335523148</v>
       </c>
       <c r="E12" t="n">
         <v>1559376001</v>
@@ -1568,48 +1568,48 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L12" t="n">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>(154, 255, 1100)</t>
+          <t>(150, 283, 1067)</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O12" t="n">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="P12" t="n">
-        <v>1100</v>
+        <v>1067</v>
       </c>
       <c r="Q12" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R12" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="S12" t="n">
-        <v>1104</v>
+        <v>1071</v>
       </c>
       <c r="T12" t="n">
-        <v>1135.415782874274</v>
+        <v>1109.923420781812</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -1622,37 +1622,37 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00:01.492000</t>
+          <t>08:00:02.892000</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43617.33335060185</v>
+        <v>43617.33336680556</v>
       </c>
       <c r="E13" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1681,33 +1681,33 @@
         <v>127</v>
       </c>
       <c r="L13" t="n">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>(357, 103, 1226)</t>
+          <t>(351, 127, 1224)</t>
         </is>
       </c>
       <c r="N13" t="n">
+        <v>351</v>
+      </c>
+      <c r="O13" t="n">
+        <v>127</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1224</v>
+      </c>
+      <c r="Q13" t="n">
         <v>357</v>
       </c>
-      <c r="O13" t="n">
-        <v>103</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1226</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>363</v>
-      </c>
       <c r="R13" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="S13" t="n">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.739001520295</v>
+        <v>1274.388480801675</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -1720,37 +1720,37 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:00:01.186000</t>
+          <t>08:00:02.690000</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43617.33334706019</v>
+        <v>43617.33336446759</v>
       </c>
       <c r="E14" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1764,48 +1764,48 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L14" t="n">
-        <v>1103</v>
+        <v>1058</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>(158, 293, 1134)</t>
+          <t>(149, 282, 1058)</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O14" t="n">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P14" t="n">
-        <v>1134</v>
+        <v>1058</v>
       </c>
       <c r="Q14" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="R14" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="S14" t="n">
-        <v>1138</v>
+        <v>1062</v>
       </c>
       <c r="T14" t="n">
-        <v>1177.721953603651</v>
+        <v>1100.918253096023</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -1818,41 +1818,41 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00:01.002000</t>
+          <t>08:00:02.491000</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43617.33334493056</v>
+        <v>43617.33336216435</v>
       </c>
       <c r="E15" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1862,71 +1862,71 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="K15" t="n">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="L15" t="n">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>(231, 245, 1039)</t>
+          <t>(148, 282, 1058)</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="O15" t="n">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="P15" t="n">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="Q15" t="n">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="R15" t="n">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="S15" t="n">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="T15" t="n">
-        <v>1087.593214395897</v>
+        <v>1100.78880808264</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
@@ -1939,18 +1939,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00:01.493000</t>
+          <t>08:00:02.189000</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43617.33335061343</v>
+        <v>43617.33335866898</v>
       </c>
       <c r="E16" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1960,95 +1960,95 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="K16" t="n">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L16" t="n">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>(229, 236, 1100)</t>
+          <t>(148, 283, 1058)</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="O16" t="n">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="P16" t="n">
-        <v>1100</v>
+        <v>1058</v>
       </c>
       <c r="Q16" t="n">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="R16" t="n">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="S16" t="n">
-        <v>1104</v>
+        <v>1062</v>
       </c>
       <c r="T16" t="n">
-        <v>1143.498578923472</v>
+        <v>1101.04722877813</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:00:02.189000</t>
+          <t>08:00:03.493000</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>43617.33335866898</v>
+        <v>43617.33337376158</v>
       </c>
       <c r="E17" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2058,48 +2058,48 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="K17" t="n">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="L17" t="n">
-        <v>1058</v>
+        <v>1224</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>(162, 304, 1058)</t>
+          <t>(352, 127, 1224)</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>162</v>
+        <v>352</v>
       </c>
       <c r="O17" t="n">
-        <v>304</v>
+        <v>127</v>
       </c>
       <c r="P17" t="n">
-        <v>1058</v>
+        <v>1224</v>
       </c>
       <c r="Q17" t="n">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="R17" t="n">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="S17" t="n">
-        <v>1062</v>
+        <v>1228</v>
       </c>
       <c r="T17" t="n">
-        <v>1108.552208964467</v>
+        <v>1274.659562393034</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -2112,37 +2112,37 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00:02.491000</t>
+          <t>08:00:03.689000</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43617.33336216435</v>
+        <v>43617.3333760301</v>
       </c>
       <c r="E18" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -2171,33 +2171,33 @@
         <v>282</v>
       </c>
       <c r="L18" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>(154, 278, 1035)</t>
+          <t>(148, 282, 1010)</t>
         </is>
       </c>
       <c r="N18" t="n">
+        <v>148</v>
+      </c>
+      <c r="O18" t="n">
+        <v>282</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1010</v>
+      </c>
+      <c r="Q18" t="n">
         <v>154</v>
       </c>
-      <c r="O18" t="n">
-        <v>278</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1035</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>160</v>
-      </c>
       <c r="R18" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S18" t="n">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="T18" t="n">
-        <v>1078.547634553059</v>
+        <v>1054.919902172672</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
@@ -2210,41 +2210,41 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00:02.502000</t>
+          <t>08:00:03.993000</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43617.33336229167</v>
+        <v>43617.33337954861</v>
       </c>
       <c r="E19" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2254,91 +2254,91 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="K19" t="n">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="L19" t="n">
-        <v>1075</v>
+        <v>1010</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>(199, 258, 1073)</t>
+          <t>(147, 283, 1010)</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="O19" t="n">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P19" t="n">
-        <v>1073</v>
+        <v>1010</v>
       </c>
       <c r="Q19" t="n">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="R19" t="n">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="S19" t="n">
-        <v>1077</v>
+        <v>1014</v>
       </c>
       <c r="T19" t="n">
-        <v>1116.964636861884</v>
+        <v>1055.055448779826</v>
       </c>
       <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00:02.690000</t>
+          <t>08:00:03.689000</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43617.33336446759</v>
+        <v>43617.3333760301</v>
       </c>
       <c r="E20" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2347,53 +2347,53 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K20" t="n">
         <v>282</v>
       </c>
       <c r="L20" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>(130, 255, 1064)</t>
+          <t>(148, 282, 1010)</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="O20" t="n">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="P20" t="n">
-        <v>1064</v>
+        <v>1010</v>
       </c>
       <c r="Q20" t="n">
-        <v>136</v>
+        <v>180.6520937406213</v>
       </c>
       <c r="R20" t="n">
-        <v>253</v>
+        <v>255.4929117028489</v>
       </c>
       <c r="S20" t="n">
-        <v>1068</v>
+        <v>1012.486137954112</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.736307133913</v>
+        <v>1058.335485562116</v>
       </c>
       <c r="U20" t="b">
         <v>0</v>
@@ -2406,92 +2406,92 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00:02.892000</t>
+          <t>08:00:03.187000</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43617.33336680556</v>
+        <v>43617.33337021991</v>
       </c>
       <c r="E21" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="K21" t="n">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="L21" t="n">
-        <v>1224</v>
+        <v>1028</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>(326, 143, 1204)</t>
+          <t>(149, 281, 1028)</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="O21" t="n">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="P21" t="n">
-        <v>1204</v>
+        <v>1028</v>
       </c>
       <c r="Q21" t="n">
-        <v>332</v>
+        <v>182.6599987513144</v>
       </c>
       <c r="R21" t="n">
-        <v>141</v>
+        <v>253.9402887542175</v>
       </c>
       <c r="S21" t="n">
-        <v>1208</v>
+        <v>1030.362314263586</v>
       </c>
       <c r="T21" t="n">
-        <v>1250.369945256203</v>
+        <v>1075.385512269902</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
@@ -2504,34 +2504,34 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00:03.993000</t>
+          <t>08:00:03.187000</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43617.33337954861</v>
+        <v>43617.33337021991</v>
       </c>
       <c r="E22" t="n">
         <v>1559376003</v>
@@ -2548,48 +2548,48 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L22" t="n">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>(148, 302, 1009)</t>
+          <t>(149, 281, 1028)</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O22" t="n">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="P22" t="n">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="Q22" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R22" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="S22" t="n">
-        <v>1013</v>
+        <v>1032</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.530556425816</v>
+        <v>1071.967350249064</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2602,41 +2602,41 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00:03.496000</t>
+          <t>08:00:04.992000</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43617.3333737963</v>
+        <v>43617.33339111111</v>
       </c>
       <c r="E23" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2646,91 +2646,91 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>a4:ab:6c:3f:79:83</t>
+          <t>14:97:8b:87:46:68</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>236</v>
+        <v>353</v>
       </c>
       <c r="K23" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L23" t="n">
-        <v>1092</v>
+        <v>1232</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>(241, 250, 1095)</t>
+          <t>(353, 129, 1232)</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="O23" t="n">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="P23" t="n">
-        <v>1095</v>
+        <v>1232</v>
       </c>
       <c r="Q23" t="n">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="R23" t="n">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="S23" t="n">
-        <v>1099</v>
+        <v>1236</v>
       </c>
       <c r="T23" t="n">
-        <v>1144.119748977352</v>
+        <v>1282.79148734313</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>35aa6cc0-c677-444f-ad4f-d94f0e50909c</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>a4:ab:6c:3f:79:83</t>
+          <t>14:97:8b:87:46:68</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00:03.187000</t>
+          <t>08:00:04.192000</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43617.33337021991</v>
+        <v>43617.33338185185</v>
       </c>
       <c r="E24" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2739,53 +2739,53 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K24" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L24" t="n">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>(133, 257, 1010)</t>
+          <t>(147, 284, 1010)</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O24" t="n">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="P24" t="n">
         <v>1010</v>
       </c>
       <c r="Q24" t="n">
-        <v>139</v>
+        <v>179.51657506738</v>
       </c>
       <c r="R24" t="n">
-        <v>255</v>
+        <v>257.4150335757836</v>
       </c>
       <c r="S24" t="n">
-        <v>1014</v>
+        <v>1012.612806214959</v>
       </c>
       <c r="T24" t="n">
-        <v>1046.540013568521</v>
+        <v>1058.732733035113</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2798,37 +2798,37 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08:00:03.493000</t>
+          <t>08:00:04.992000</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43617.33337376158</v>
+        <v>43617.33339111111</v>
       </c>
       <c r="E25" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2842,48 +2842,48 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K25" t="n">
+        <v>129</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1232</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>(353, 129, 1232)</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>353</v>
+      </c>
+      <c r="O25" t="n">
+        <v>129</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1232</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>359</v>
+      </c>
+      <c r="R25" t="n">
         <v>127</v>
       </c>
-      <c r="L25" t="n">
-        <v>1224</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>(337, 153, 1202)</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>337</v>
-      </c>
-      <c r="O25" t="n">
-        <v>153</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1202</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>343</v>
-      </c>
-      <c r="R25" t="n">
-        <v>151</v>
-      </c>
       <c r="S25" t="n">
-        <v>1206</v>
+        <v>1236</v>
       </c>
       <c r="T25" t="n">
-        <v>1252.513472981429</v>
+        <v>1282.79148734313</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
@@ -2896,41 +2896,41 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08:00:03.496000</t>
+          <t>08:00:04.192000</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43617.3333737963</v>
+        <v>43617.33338185185</v>
       </c>
       <c r="E26" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2940,95 +2940,95 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="K26" t="n">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="L26" t="n">
-        <v>1092</v>
+        <v>1010</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>(198, 251, 1089)</t>
+          <t>(147, 284, 1010)</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="O26" t="n">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="P26" t="n">
-        <v>1089</v>
+        <v>1010</v>
       </c>
       <c r="Q26" t="n">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="R26" t="n">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="S26" t="n">
-        <v>1093</v>
+        <v>1014</v>
       </c>
       <c r="T26" t="n">
-        <v>1130.529964220321</v>
+        <v>1055.326015978001</v>
       </c>
       <c r="U26" t="b">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08:00:03.689000</t>
+          <t>08:00:04.392000</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43617.3333760301</v>
+        <v>43617.33338416667</v>
       </c>
       <c r="E27" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3038,48 +3038,48 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="K27" t="n">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="L27" t="n">
-        <v>1010</v>
+        <v>1210</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>(127, 269, 1004)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N27" t="n">
+        <v>352</v>
+      </c>
+      <c r="O27" t="n">
+        <v>129</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>358</v>
+      </c>
+      <c r="R27" t="n">
         <v>127</v>
       </c>
-      <c r="O27" t="n">
-        <v>269</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1004</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>133</v>
-      </c>
-      <c r="R27" t="n">
-        <v>267</v>
-      </c>
       <c r="S27" t="n">
-        <v>1008</v>
+        <v>1214</v>
       </c>
       <c r="T27" t="n">
-        <v>1043.111691047512</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
@@ -3092,41 +3092,41 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:00:04</t>
+          <t>08:00:04.688000</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>43617.33337962963</v>
+        <v>43617.33338759259</v>
       </c>
       <c r="E28" t="n">
         <v>1559376004</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3136,91 +3136,91 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="K28" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L28" t="n">
-        <v>1093</v>
+        <v>1217</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>(248, 213, 1078)</t>
+          <t>(352, 129, 1217)</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="O28" t="n">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="P28" t="n">
-        <v>1078</v>
+        <v>1217</v>
       </c>
       <c r="Q28" t="n">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="R28" t="n">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="S28" t="n">
-        <v>1082</v>
+        <v>1221</v>
       </c>
       <c r="T28" t="n">
-        <v>1121.724119380519</v>
+        <v>1268.166392868065</v>
       </c>
       <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W28" t="b">
         <v>0</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:00:04.688000</t>
+          <t>08:00:05.984000</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43617.33338759259</v>
+        <v>43617.33340259259</v>
       </c>
       <c r="E29" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -3249,33 +3249,33 @@
         <v>129</v>
       </c>
       <c r="L29" t="n">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>(389, 135, 1223)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="O29" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P29" t="n">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="Q29" t="n">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="R29" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S29" t="n">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="T29" t="n">
-        <v>1285.075484164257</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U29" t="b">
         <v>0</v>
@@ -3288,17 +3288,17 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
@@ -3311,18 +3311,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:00:04.192000</t>
+          <t>08:00:05.691000</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>43617.33338185185</v>
+        <v>43617.33339920139</v>
       </c>
       <c r="E30" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3332,48 +3332,48 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>147</v>
+        <v>352</v>
       </c>
       <c r="K30" t="n">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="L30" t="n">
-        <v>1010</v>
+        <v>1210</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>(171, 303, 995)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="O30" t="n">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="P30" t="n">
-        <v>995</v>
+        <v>1210</v>
       </c>
       <c r="Q30" t="n">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="R30" t="n">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="S30" t="n">
-        <v>999</v>
+        <v>1214</v>
       </c>
       <c r="T30" t="n">
-        <v>1049.919520725279</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U30" t="b">
         <v>0</v>
@@ -3386,37 +3386,37 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:00:04.392000</t>
+          <t>08:00:05.392000</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>43617.33338416667</v>
+        <v>43617.33339574074</v>
       </c>
       <c r="E31" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3430,12 +3430,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -3445,33 +3445,33 @@
         <v>129</v>
       </c>
       <c r="L31" t="n">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>(348, 152, 1190)</t>
+          <t>(352, 129, 1224)</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O31" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="P31" t="n">
-        <v>1190</v>
+        <v>1224</v>
       </c>
       <c r="Q31" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R31" t="n">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="S31" t="n">
-        <v>1194</v>
+        <v>1228</v>
       </c>
       <c r="T31" t="n">
-        <v>1243.895494002611</v>
+        <v>1274.863522107367</v>
       </c>
       <c r="U31" t="b">
         <v>0</v>
@@ -3484,37 +3484,37 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08:00:04.992000</t>
+          <t>08:00:05.197000</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43617.33339111111</v>
+        <v>43617.33339348379</v>
       </c>
       <c r="E32" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3528,16 +3528,16 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K32" t="n">
         <v>129</v>
@@ -3547,29 +3547,29 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>(376, 123, 1208)</t>
+          <t>(352, 129, 1232)</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="O32" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P32" t="n">
-        <v>1208</v>
+        <v>1232</v>
       </c>
       <c r="Q32" t="n">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="R32" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="S32" t="n">
-        <v>1212</v>
+        <v>1236</v>
       </c>
       <c r="T32" t="n">
-        <v>1265.757085700096</v>
+        <v>1282.521344851617</v>
       </c>
       <c r="U32" t="b">
         <v>0</v>
@@ -3582,41 +3582,41 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:00:04.996000</t>
+          <t>08:00:06.186000</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43617.33339115741</v>
+        <v>43617.33340493056</v>
       </c>
       <c r="E33" t="n">
-        <v>1559376004</v>
+        <v>1559376006</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3626,91 +3626,91 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="K33" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L33" t="n">
-        <v>1110</v>
+        <v>1210</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>(270, 251, 1118)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="O33" t="n">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="P33" t="n">
-        <v>1118</v>
+        <v>1210</v>
       </c>
       <c r="Q33" t="n">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="R33" t="n">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="S33" t="n">
-        <v>1122</v>
+        <v>1214</v>
       </c>
       <c r="T33" t="n">
-        <v>1172.476438995684</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U33" t="b">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W33" t="b">
         <v>0</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08:00:05.197000</t>
+          <t>08:00:06.490000</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43617.33339348379</v>
+        <v>43617.33340844907</v>
       </c>
       <c r="E34" t="n">
-        <v>1559376005</v>
+        <v>1559376006</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K34" t="n">
         <v>129</v>
       </c>
       <c r="L34" t="n">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>(355, 111, 1215)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O34" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P34" t="n">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="Q34" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="R34" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="S34" t="n">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="T34" t="n">
-        <v>1265.342246192705</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U34" t="b">
         <v>0</v>
@@ -3778,37 +3778,37 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08:00:05.392000</t>
+          <t>08:00:06.690000</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43617.33339574074</v>
+        <v>43617.33341076389</v>
       </c>
       <c r="E35" t="n">
-        <v>1559376005</v>
+        <v>1559376006</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3822,48 +3822,48 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K35" t="n">
         <v>129</v>
       </c>
       <c r="L35" t="n">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>(349, 106, 1209)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O35" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="P35" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="Q35" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="R35" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="S35" t="n">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="T35" t="n">
-        <v>1257.512624191105</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U35" t="b">
         <v>0</v>
@@ -3876,41 +3876,41 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08:00:05.691000</t>
+          <t>08:00:06.984000</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43617.33339920139</v>
+        <v>43617.33341416666</v>
       </c>
       <c r="E36" t="n">
-        <v>1559376005</v>
+        <v>1559376006</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3920,48 +3920,48 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>352</v>
+        <v>147</v>
       </c>
       <c r="K36" t="n">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="L36" t="n">
-        <v>1210</v>
+        <v>1010</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>(336, 137, 1235)</t>
+          <t>(147, 283, 1010)</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>336</v>
+        <v>147</v>
       </c>
       <c r="O36" t="n">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="P36" t="n">
-        <v>1235</v>
+        <v>1010</v>
       </c>
       <c r="Q36" t="n">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="R36" t="n">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="S36" t="n">
-        <v>1239</v>
+        <v>1014</v>
       </c>
       <c r="T36" t="n">
-        <v>1282.022620705267</v>
+        <v>1055.055448779826</v>
       </c>
       <c r="U36" t="b">
         <v>0</v>
@@ -3974,92 +3974,92 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>08:00:05.984000</t>
+          <t>08:00:07.185000</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43617.33340259259</v>
+        <v>43617.33341649306</v>
       </c>
       <c r="E37" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="K37" t="n">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="L37" t="n">
-        <v>1210</v>
+        <v>1010</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>(374, 105, 1232)</t>
+          <t>(148, 283, 1010)</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="O37" t="n">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="P37" t="n">
-        <v>1232</v>
+        <v>1010</v>
       </c>
       <c r="Q37" t="n">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="R37" t="n">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="S37" t="n">
-        <v>1236</v>
+        <v>1014</v>
       </c>
       <c r="T37" t="n">
-        <v>1286.41245329793</v>
+        <v>1055.189556430502</v>
       </c>
       <c r="U37" t="b">
         <v>0</v>
@@ -4072,17 +4072,17 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
     </row>
@@ -4095,18 +4095,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08:00:05.994000</t>
+          <t>08:00:07.982000</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43617.33340270833</v>
+        <v>43617.3334257176</v>
       </c>
       <c r="E38" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4116,91 +4116,91 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="K38" t="n">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="L38" t="n">
-        <v>1092</v>
+        <v>1010</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>(238, 257, 1078)</t>
+          <t>(147, 282, 1010)</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="O38" t="n">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="P38" t="n">
-        <v>1078</v>
+        <v>1010</v>
       </c>
       <c r="Q38" t="n">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="R38" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="S38" t="n">
-        <v>1082</v>
+        <v>1014</v>
       </c>
       <c r="T38" t="n">
-        <v>1128.884847980519</v>
+        <v>1054.785760237594</v>
       </c>
       <c r="U38" t="b">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W38" t="b">
         <v>0</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08:00:05.392000</t>
+          <t>08:00:07.689000</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43617.33339574074</v>
+        <v>43617.33342232639</v>
       </c>
       <c r="E39" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4209,53 +4209,53 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>WiFi 2.4GHz</t>
+          <t>RFID</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>d4:19:f2:ec:a7:5f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K39" t="n">
         <v>129</v>
       </c>
       <c r="L39" t="n">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>(353, 151, 1218)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O39" t="n">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="P39" t="n">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="Q39" t="n">
-        <v>404.8839165505985</v>
+        <v>357</v>
       </c>
       <c r="R39" t="n">
-        <v>132.3240581309418</v>
+        <v>127</v>
       </c>
       <c r="S39" t="n">
-        <v>1204.838739051932</v>
+        <v>1214</v>
       </c>
       <c r="T39" t="n">
-        <v>1276.245274232191</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U39" t="b">
         <v>0</v>
@@ -4268,37 +4268,37 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>d4:19:f2:ec:a7:5f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08:00:06.690000</t>
+          <t>08:00:07.489000</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43617.33341076389</v>
+        <v>43617.33342001157</v>
       </c>
       <c r="E40" t="n">
-        <v>1559376006</v>
+        <v>1559376007</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4312,12 +4312,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -4331,29 +4331,29 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>(336, 134, 1196)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="O40" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P40" t="n">
-        <v>1196</v>
+        <v>1210</v>
       </c>
       <c r="Q40" t="n">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="R40" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S40" t="n">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="T40" t="n">
-        <v>1244.290962757505</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U40" t="b">
         <v>0</v>
@@ -4366,37 +4366,37 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08:00:06.984000</t>
+          <t>08:00:07.185000</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43617.33341416666</v>
+        <v>43617.33341649306</v>
       </c>
       <c r="E41" t="n">
-        <v>1559376006</v>
+        <v>1559376007</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4410,16 +4410,16 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K41" t="n">
         <v>283</v>
@@ -4429,29 +4429,29 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>(180, 293, 1014)</t>
+          <t>(148, 283, 1010)</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="O41" t="n">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="P41" t="n">
+        <v>1010</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>154</v>
+      </c>
+      <c r="R41" t="n">
+        <v>281</v>
+      </c>
+      <c r="S41" t="n">
         <v>1014</v>
       </c>
-      <c r="Q41" t="n">
-        <v>186</v>
-      </c>
-      <c r="R41" t="n">
-        <v>291</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1018</v>
-      </c>
       <c r="T41" t="n">
-        <v>1066.490037459329</v>
+        <v>1055.189556430502</v>
       </c>
       <c r="U41" t="b">
         <v>0</v>
@@ -4464,135 +4464,135 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08:00:06.499000</t>
+          <t>08:00:07.982000</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43617.33340855324</v>
+        <v>43617.3334257176</v>
       </c>
       <c r="E42" t="n">
-        <v>1559376006</v>
+        <v>1559376007</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="K42" t="n">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="L42" t="n">
-        <v>1075</v>
+        <v>1010</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>(256, 238, 1056)</t>
+          <t>(147, 282, 1010)</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="O42" t="n">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="P42" t="n">
-        <v>1056</v>
+        <v>1010</v>
       </c>
       <c r="Q42" t="n">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="R42" t="n">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="S42" t="n">
-        <v>1060</v>
+        <v>1014</v>
       </c>
       <c r="T42" t="n">
-        <v>1107.611845368223</v>
+        <v>1054.785760237594</v>
       </c>
       <c r="U42" t="b">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W42" t="b">
         <v>0</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08:00:06.490000</t>
+          <t>08:00:08.192000</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43617.33340844907</v>
+        <v>43617.33342814815</v>
       </c>
       <c r="E43" t="n">
-        <v>1559376006</v>
+        <v>1559376008</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4606,16 +4606,16 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K43" t="n">
         <v>129</v>
@@ -4625,29 +4625,29 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>(374, 122, 1222)</t>
+          <t>(350, 129, 1210)</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="O43" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P43" t="n">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="Q43" t="n">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="R43" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S43" t="n">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="T43" t="n">
-        <v>1278.406821008086</v>
+        <v>1260.925453783847</v>
       </c>
       <c r="U43" t="b">
         <v>0</v>
@@ -4660,899 +4660,17 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>08:00:06.186000</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>43617.33340493056</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1559376006</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>352</v>
-      </c>
-      <c r="K44" t="n">
-        <v>129</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>(387, 140, 1208)</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>387</v>
-      </c>
-      <c r="O44" t="n">
-        <v>140</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1208</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>393</v>
-      </c>
-      <c r="R44" t="n">
-        <v>138</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1212</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1270.803289262347</v>
-      </c>
-      <c r="U44" t="b">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>08:00:07.489000</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>43617.33342001157</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>351</v>
-      </c>
-      <c r="K45" t="n">
-        <v>129</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>(349, 105, 1215)</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>349</v>
-      </c>
-      <c r="O45" t="n">
-        <v>105</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1215</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>355</v>
-      </c>
-      <c r="R45" t="n">
-        <v>103</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1219</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1263.178134706265</v>
-      </c>
-      <c r="U45" t="b">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="b">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>08:00:07.504000</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>43617.33342018518</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>235</v>
-      </c>
-      <c r="K46" t="n">
-        <v>242</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1075</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>(227, 253, 1085)</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>227</v>
-      </c>
-      <c r="O46" t="n">
-        <v>253</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1085</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>233</v>
-      </c>
-      <c r="R46" t="n">
-        <v>251</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1089</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1132.442934544606</v>
-      </c>
-      <c r="U46" t="b">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>15</v>
-      </c>
-      <c r="W46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>08:00:07.689000</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>43617.33342232639</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>351</v>
-      </c>
-      <c r="K47" t="n">
-        <v>129</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>(337, 141, 1227)</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>337</v>
-      </c>
-      <c r="O47" t="n">
-        <v>141</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1227</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>343</v>
-      </c>
-      <c r="R47" t="n">
-        <v>139</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1231</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1275.044705098609</v>
-      </c>
-      <c r="U47" t="b">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="b">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>08:00:07.982000</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>43617.3334257176</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>21:1f:6b:e8:a4:8f</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>147</v>
-      </c>
-      <c r="K48" t="n">
-        <v>282</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1010</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>(117, 265, 991)</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>117</v>
-      </c>
-      <c r="O48" t="n">
-        <v>265</v>
-      </c>
-      <c r="P48" t="n">
-        <v>991</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>123</v>
-      </c>
-      <c r="R48" t="n">
-        <v>263</v>
-      </c>
-      <c r="S48" t="n">
-        <v>995</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1028.483835556009</v>
-      </c>
-      <c r="U48" t="b">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="b">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>21:1f:6b:e8:a4:8f</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>08:00:07.998000</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>43617.33342590278</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>235</v>
-      </c>
-      <c r="K49" t="n">
-        <v>242</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1084</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>(212, 255, 1110)</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>212</v>
-      </c>
-      <c r="O49" t="n">
-        <v>255</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1110</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>218</v>
-      </c>
-      <c r="R49" t="n">
-        <v>253</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1114</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1154.002166375783</v>
-      </c>
-      <c r="U49" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>16</v>
-      </c>
-      <c r="W49" t="b">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>08:00:07.004000</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>43617.33341439815</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>233</v>
-      </c>
-      <c r="K50" t="n">
-        <v>243</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1075</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>(246, 210, 1074)</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>246</v>
-      </c>
-      <c r="O50" t="n">
-        <v>210</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1074</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>252</v>
-      </c>
-      <c r="R50" t="n">
-        <v>208</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1078</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1116.890325860154</v>
-      </c>
-      <c r="U50" t="b">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>20</v>
-      </c>
-      <c r="W50" t="b">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>08:00:07.185000</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>43617.33341649306</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>21:1f:6b:e8:a4:8f</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>148</v>
-      </c>
-      <c r="K51" t="n">
-        <v>283</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1010</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>(120, 287, 986)</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>120</v>
-      </c>
-      <c r="O51" t="n">
-        <v>287</v>
-      </c>
-      <c r="P51" t="n">
-        <v>986</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>126</v>
-      </c>
-      <c r="R51" t="n">
-        <v>285</v>
-      </c>
-      <c r="S51" t="n">
-        <v>990</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1029.971358825089</v>
-      </c>
-      <c r="U51" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="b">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>21:1f:6b:e8:a4:8f</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>08:00:08.192000</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>43617.33342814815</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1559376008</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>350</v>
-      </c>
-      <c r="K52" t="n">
-        <v>129</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>(321, 105, 1201)</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>321</v>
-      </c>
-      <c r="O52" t="n">
-        <v>105</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1201</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>327</v>
-      </c>
-      <c r="R52" t="n">
-        <v>103</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1205</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1242.369912707162</v>
-      </c>
-      <c r="U52" t="b">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="b">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
     </row>
